--- a/excel-data/excel-files/Voyage List.xlsx
+++ b/excel-data/excel-files/Voyage List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bp365-my.sharepoint.com/personal/neal_smothers_bp_com/Documents/PowerBI/PowerBI Data/Drill_Prod Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nealasmothers/Downloads/logisticsdashboard/excel-data/excel-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{CBEB2A2C-0D85-49DB-8C3F-704016A2BECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C13A49-29C8-384C-8F7D-FB89452D557B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3D613C-B519-5C40-9C3F-5AC12E600576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24060" yWindow="660" windowWidth="23900" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="366">
   <si>
     <t>Edit</t>
   </si>
@@ -1086,6 +1086,39 @@
   <si>
     <t>Fourchon -&gt; Deepwater Invictus -&gt; Stena IceMAX -&gt; Ocean Blackhornet -&gt; Stena IceMAX -&gt; Fourchon</t>
   </si>
+  <si>
+    <t>Fourchon -&gt; Ocean BlackLion -&gt; Fourchon -&gt; Deepwater Invictus -&gt; Ocean BlackLion -&gt; Atlantis PQ -&gt; Ocean Blackhornet -&gt; Atlantis PQ -&gt; Stena IceMAX -&gt; Ocean Blackhornet -&gt; Fourchon</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; Atlantis PQ -&gt; Ocean Blackhornet</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; Ocean Blackhornet -&gt; Ocean BlackLion -&gt; Atlantis PQ -&gt; Ocean BlackLion -&gt; Fourchon</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; C-Constructor -&gt; Mad Dog -&gt; Fourchon</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; Mad Dog -&gt; Deepwater Invictus -&gt; Fourchon</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; Deepwater Invictus -&gt; Ocean BlackLion -&gt; Deepwater Invictus -&gt; Fourchon</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; Deepwater Invictus -&gt; Mad Dog -&gt; Fourchon</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; Deepwater Invictus -&gt; Mad Dog -&gt; Deepwater Invictus -&gt; Argos -&gt; Fourchon</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; Atlantis PQ -&gt; Ocean BlackLion -&gt; Atlantis PQ -&gt; Ocean BlackLion -&gt; Fourchon</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; Ocean BlackLion -&gt; Shenzi -&gt; Fourchon</t>
+  </si>
+  <si>
+    <t>Fourchon -&gt; Atlantis PQ -&gt; Stena IceMAX -&gt; Atlantis PQ -&gt; Stena IceMAX -&gt; Fourchon</t>
+  </si>
 </sst>
 </file>
 
@@ -1194,13 +1227,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="apex_xlsx_table1" displayName="apex_xlsx_table1" ref="A1:I1229" totalsRowShown="0">
-  <autoFilter ref="A1:I1229" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="apex_xlsx_table1" displayName="apex_xlsx_table1" ref="A1:I1320" totalsRowShown="0">
+  <autoFilter ref="A1:I1320" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Edit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vessel"/>
@@ -1533,11 +1562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1150" sqref="D1150"/>
+      <pane ySplit="1" topLeftCell="A813" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1323" sqref="I1323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37187,6 +37216,2645 @@
         <v>55</v>
       </c>
     </row>
+    <row r="1230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1230" s="2">
+        <v>82447</v>
+      </c>
+      <c r="B1230" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1230" s="2">
+        <v>36</v>
+      </c>
+      <c r="D1230" s="4">
+        <v>45838.708333333299</v>
+      </c>
+      <c r="E1230" s="4">
+        <v>45844.138888888898</v>
+      </c>
+      <c r="F1230" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1230" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1230" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1230" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1231" s="2">
+        <v>82448</v>
+      </c>
+      <c r="B1231" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1231" s="2">
+        <v>62</v>
+      </c>
+      <c r="D1231" s="4">
+        <v>45838.532638888901</v>
+      </c>
+      <c r="E1231" s="4">
+        <v>45840.938194444403</v>
+      </c>
+      <c r="F1231" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1231" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1231" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1232" s="2">
+        <v>82437</v>
+      </c>
+      <c r="B1232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1232" s="2">
+        <v>68</v>
+      </c>
+      <c r="D1232" s="4">
+        <v>45838.447916666701</v>
+      </c>
+      <c r="E1232" s="4">
+        <v>45843.072916666701</v>
+      </c>
+      <c r="F1232" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1232" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1232" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1232" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1233" s="2">
+        <v>82428</v>
+      </c>
+      <c r="B1233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1233" s="2">
+        <v>44</v>
+      </c>
+      <c r="D1233" s="4">
+        <v>45837.913194444402</v>
+      </c>
+      <c r="E1233" s="4">
+        <v>45845.729166666701</v>
+      </c>
+      <c r="F1233" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1233" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1233" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1234" s="2">
+        <v>82427</v>
+      </c>
+      <c r="B1234" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1234" s="2">
+        <v>38</v>
+      </c>
+      <c r="D1234" s="4">
+        <v>45837.760416666701</v>
+      </c>
+      <c r="E1234" s="4">
+        <v>45842.180555555598</v>
+      </c>
+      <c r="F1234" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1234" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1234" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1235" s="2">
+        <v>82429</v>
+      </c>
+      <c r="B1235" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1235" s="2">
+        <v>30</v>
+      </c>
+      <c r="D1235" s="4">
+        <v>45837.71875</v>
+      </c>
+      <c r="E1235" s="4">
+        <v>45844.739583333299</v>
+      </c>
+      <c r="F1235" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1235" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1235" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1235" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1236" s="2">
+        <v>82417</v>
+      </c>
+      <c r="B1236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1236" s="2">
+        <v>67</v>
+      </c>
+      <c r="D1236" s="4">
+        <v>45837.333333333299</v>
+      </c>
+      <c r="E1236" s="4">
+        <v>45838.447916666701</v>
+      </c>
+      <c r="F1236" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1236" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1236" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1237" s="2">
+        <v>82407</v>
+      </c>
+      <c r="B1237" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1237" s="2">
+        <v>24</v>
+      </c>
+      <c r="D1237" s="4">
+        <v>45836.819444444402</v>
+      </c>
+      <c r="E1237" s="4">
+        <v>45855.536805555603</v>
+      </c>
+      <c r="F1237" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1237" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1237" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1237" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1238" s="2">
+        <v>82397</v>
+      </c>
+      <c r="B1238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1238" s="2">
+        <v>42</v>
+      </c>
+      <c r="D1238" s="4">
+        <v>45836.329861111102</v>
+      </c>
+      <c r="E1238" s="4">
+        <v>45841.805555555598</v>
+      </c>
+      <c r="F1238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1238" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1238" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1239" s="2">
+        <v>82388</v>
+      </c>
+      <c r="B1239" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1239" s="2">
+        <v>61</v>
+      </c>
+      <c r="D1239" s="4">
+        <v>45836.083333333299</v>
+      </c>
+      <c r="E1239" s="4">
+        <v>45838.532638888901</v>
+      </c>
+      <c r="F1239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1239" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1239" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1240" s="2">
+        <v>82387</v>
+      </c>
+      <c r="B1240" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1240" s="2">
+        <v>37</v>
+      </c>
+      <c r="D1240" s="4">
+        <v>45836.021527777797</v>
+      </c>
+      <c r="E1240" s="4">
+        <v>45837.760416666701</v>
+      </c>
+      <c r="F1240" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1240" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1240" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1240" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1241" s="2">
+        <v>82377</v>
+      </c>
+      <c r="B1241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1241" s="2">
+        <v>66</v>
+      </c>
+      <c r="D1241" s="4">
+        <v>45835.815972222197</v>
+      </c>
+      <c r="E1241" s="4">
+        <v>45837.333333333299</v>
+      </c>
+      <c r="F1241" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1241" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1241" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1241" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1242" s="2">
+        <v>82367</v>
+      </c>
+      <c r="B1242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1242" s="2">
+        <v>43</v>
+      </c>
+      <c r="D1242" s="4">
+        <v>45835.184027777803</v>
+      </c>
+      <c r="E1242" s="4">
+        <v>45837.913194444402</v>
+      </c>
+      <c r="F1242" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1242" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1242" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1243" s="2">
+        <v>82347</v>
+      </c>
+      <c r="B1243" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1243" s="2">
+        <v>60</v>
+      </c>
+      <c r="D1243" s="4">
+        <v>45834.979166666701</v>
+      </c>
+      <c r="E1243" s="4">
+        <v>45836.083333333299</v>
+      </c>
+      <c r="F1243" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1243" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1243" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1244" s="2">
+        <v>82348</v>
+      </c>
+      <c r="B1244" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1244" s="2">
+        <v>37</v>
+      </c>
+      <c r="D1244" s="4">
+        <v>45834.972222222197</v>
+      </c>
+      <c r="E1244" s="4">
+        <v>45841.364583333299</v>
+      </c>
+      <c r="F1244" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1244" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1244" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1244" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1245" s="2">
+        <v>82337</v>
+      </c>
+      <c r="B1245" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1245" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1245" s="4">
+        <v>45834.631944444402</v>
+      </c>
+      <c r="E1245" s="4">
+        <v>45840.229166666701</v>
+      </c>
+      <c r="F1245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1245" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1245" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1245" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1246" s="2">
+        <v>82328</v>
+      </c>
+      <c r="B1246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1246" s="2">
+        <v>65</v>
+      </c>
+      <c r="D1246" s="4">
+        <v>45833.78125</v>
+      </c>
+      <c r="E1246" s="4">
+        <v>45835.815972222197</v>
+      </c>
+      <c r="F1246" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1246" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1246" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1246" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1247" s="2">
+        <v>82327</v>
+      </c>
+      <c r="B1247" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1247" s="2">
+        <v>59</v>
+      </c>
+      <c r="D1247" s="4">
+        <v>45833.764583333301</v>
+      </c>
+      <c r="E1247" s="4">
+        <v>45834.979166666701</v>
+      </c>
+      <c r="F1247" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1247" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1247" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1247" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1248" s="2">
+        <v>82317</v>
+      </c>
+      <c r="B1248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1248" s="2">
+        <v>64</v>
+      </c>
+      <c r="D1248" s="4">
+        <v>45832.96875</v>
+      </c>
+      <c r="E1248" s="4">
+        <v>45833.78125</v>
+      </c>
+      <c r="F1248" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1248" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1248" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1249" s="2">
+        <v>82307</v>
+      </c>
+      <c r="B1249" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1249" s="2">
+        <v>58</v>
+      </c>
+      <c r="D1249" s="4">
+        <v>45832.568749999999</v>
+      </c>
+      <c r="E1249" s="4">
+        <v>45833.764583333301</v>
+      </c>
+      <c r="F1249" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1249" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1249" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1249" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1250" s="2">
+        <v>82298</v>
+      </c>
+      <c r="B1250" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1250" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1250" s="4">
+        <v>45832.308333333298</v>
+      </c>
+      <c r="E1250" s="4">
+        <v>45838.708333333299</v>
+      </c>
+      <c r="F1250" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1250" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1250" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1250" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1251" s="2">
+        <v>82287</v>
+      </c>
+      <c r="B1251" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1251" s="2">
+        <v>36</v>
+      </c>
+      <c r="D1251" s="4">
+        <v>45832.225694444402</v>
+      </c>
+      <c r="E1251" s="4">
+        <v>45836.021527777797</v>
+      </c>
+      <c r="F1251" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1251" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1251" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1251" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1252" s="2">
+        <v>82278</v>
+      </c>
+      <c r="B1252" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1252" s="2">
+        <v>63</v>
+      </c>
+      <c r="D1252" s="4">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="E1252" s="4">
+        <v>45832.96875</v>
+      </c>
+      <c r="F1252" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1252" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1253" s="2">
+        <v>82277</v>
+      </c>
+      <c r="B1253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1253" s="2">
+        <v>41</v>
+      </c>
+      <c r="D1253" s="4">
+        <v>45831.909722222197</v>
+      </c>
+      <c r="E1253" s="4">
+        <v>45836.329861111102</v>
+      </c>
+      <c r="F1253" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1253" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1253" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1253" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1254" s="2">
+        <v>82257</v>
+      </c>
+      <c r="B1254" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1254" s="2">
+        <v>29</v>
+      </c>
+      <c r="D1254" s="4">
+        <v>45830.739583333299</v>
+      </c>
+      <c r="E1254" s="4">
+        <v>45837.71875</v>
+      </c>
+      <c r="F1254" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1254" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1254" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1254" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1255" s="2">
+        <v>82247</v>
+      </c>
+      <c r="B1255" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1255" s="2">
+        <v>36</v>
+      </c>
+      <c r="D1255" s="4">
+        <v>45830.295138888898</v>
+      </c>
+      <c r="E1255" s="4">
+        <v>45834.972222222197</v>
+      </c>
+      <c r="F1255" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1255" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1255" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1255" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1256" s="2">
+        <v>82227</v>
+      </c>
+      <c r="B1256" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1256" s="2">
+        <v>57</v>
+      </c>
+      <c r="D1256" s="4">
+        <v>45829.197916666701</v>
+      </c>
+      <c r="E1256" s="4">
+        <v>45832.568749999999</v>
+      </c>
+      <c r="F1256" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1256" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1256" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1256" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1257" s="2">
+        <v>82237</v>
+      </c>
+      <c r="B1257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1257" s="2">
+        <v>40</v>
+      </c>
+      <c r="D1257" s="4">
+        <v>45829.125</v>
+      </c>
+      <c r="E1257" s="4">
+        <v>45831.909722222197</v>
+      </c>
+      <c r="F1257" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1257" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1257" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1257" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1258" s="2">
+        <v>82217</v>
+      </c>
+      <c r="B1258" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1258" s="2">
+        <v>62</v>
+      </c>
+      <c r="D1258" s="4">
+        <v>45828.78125</v>
+      </c>
+      <c r="E1258" s="4">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="F1258" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1258" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1258" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1258" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1259" s="2">
+        <v>82218</v>
+      </c>
+      <c r="B1259" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1259" s="2">
+        <v>34</v>
+      </c>
+      <c r="D1259" s="4">
+        <v>45828.7722222222</v>
+      </c>
+      <c r="E1259" s="4">
+        <v>45832.308333333298</v>
+      </c>
+      <c r="F1259" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1259" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1259" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1259" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1260" s="2">
+        <v>82219</v>
+      </c>
+      <c r="B1260" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1260" s="2">
+        <v>13</v>
+      </c>
+      <c r="D1260" s="4">
+        <v>45828.729166666701</v>
+      </c>
+      <c r="E1260" s="4">
+        <v>45834.631944444402</v>
+      </c>
+      <c r="F1260" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1260" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1260" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1260" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1261" s="2">
+        <v>82207</v>
+      </c>
+      <c r="B1261" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1261" s="2">
+        <v>36</v>
+      </c>
+      <c r="D1261" s="4">
+        <v>45828.145833333299</v>
+      </c>
+      <c r="E1261" s="4">
+        <v>45841.986111111102</v>
+      </c>
+      <c r="F1261" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1261" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1261" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1261" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1262" s="2">
+        <v>82199</v>
+      </c>
+      <c r="B1262" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1262" s="2">
+        <v>56</v>
+      </c>
+      <c r="D1262" s="4">
+        <v>45828.004166666702</v>
+      </c>
+      <c r="E1262" s="4">
+        <v>45829.197916666701</v>
+      </c>
+      <c r="F1262" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1262" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1262" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1262" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1263" s="2">
+        <v>82198</v>
+      </c>
+      <c r="B1263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1263" s="2">
+        <v>42</v>
+      </c>
+      <c r="D1263" s="4">
+        <v>45827.979166666701</v>
+      </c>
+      <c r="E1263" s="4">
+        <v>45835.184027777803</v>
+      </c>
+      <c r="F1263" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1263" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1263" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1263" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1264" s="2">
+        <v>82197</v>
+      </c>
+      <c r="B1264" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1264" s="2">
+        <v>61</v>
+      </c>
+      <c r="D1264" s="4">
+        <v>45827.875</v>
+      </c>
+      <c r="E1264" s="4">
+        <v>45828.78125</v>
+      </c>
+      <c r="F1264" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1264" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1264" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1264" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1265" s="2">
+        <v>82187</v>
+      </c>
+      <c r="B1265" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1265" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1265" s="4">
+        <v>45827.340277777803</v>
+      </c>
+      <c r="E1265" s="4">
+        <v>45832.225694444402</v>
+      </c>
+      <c r="F1265" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1265" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1265" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1265" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1266" s="2">
+        <v>82179</v>
+      </c>
+      <c r="B1266" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1266" s="2">
+        <v>55</v>
+      </c>
+      <c r="D1266" s="4">
+        <v>45826.827083333301</v>
+      </c>
+      <c r="E1266" s="4">
+        <v>45828.004166666702</v>
+      </c>
+      <c r="F1266" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1266" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1266" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1267" s="2">
+        <v>82178</v>
+      </c>
+      <c r="B1267" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1267" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1267" s="4">
+        <v>45826.708333333299</v>
+      </c>
+      <c r="E1267" s="4">
+        <v>45828.145833333299</v>
+      </c>
+      <c r="F1267" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1267" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1267" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1267" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1268" s="2">
+        <v>82177</v>
+      </c>
+      <c r="B1268" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1268" s="2">
+        <v>60</v>
+      </c>
+      <c r="D1268" s="4">
+        <v>45826.701388888898</v>
+      </c>
+      <c r="E1268" s="4">
+        <v>45827.875</v>
+      </c>
+      <c r="F1268" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1268" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1268" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1268" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1269" s="2">
+        <v>82167</v>
+      </c>
+      <c r="B1269" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1269" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1269" s="4">
+        <v>45826.396527777797</v>
+      </c>
+      <c r="E1269" s="4">
+        <v>45830.295138888898</v>
+      </c>
+      <c r="F1269" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1269" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1269" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1269" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1270" s="2">
+        <v>82157</v>
+      </c>
+      <c r="B1270" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1270" s="2">
+        <v>12</v>
+      </c>
+      <c r="D1270" s="4">
+        <v>45825.861111111102</v>
+      </c>
+      <c r="E1270" s="4">
+        <v>45828.729166666701</v>
+      </c>
+      <c r="F1270" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1270" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1270" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1270" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1271" s="2">
+        <v>82147</v>
+      </c>
+      <c r="B1271" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1271" s="2">
+        <v>33</v>
+      </c>
+      <c r="D1271" s="4">
+        <v>45825.378472222197</v>
+      </c>
+      <c r="E1271" s="4">
+        <v>45828.7722222222</v>
+      </c>
+      <c r="F1271" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1271" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1271" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1272" s="2">
+        <v>82137</v>
+      </c>
+      <c r="B1272" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1272" s="2">
+        <v>54</v>
+      </c>
+      <c r="D1272" s="4">
+        <v>45825.1694444444</v>
+      </c>
+      <c r="E1272" s="4">
+        <v>45826.827083333301</v>
+      </c>
+      <c r="F1272" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1272" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1272" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1272" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1273" s="2">
+        <v>82128</v>
+      </c>
+      <c r="B1273" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1273" s="2">
+        <v>34</v>
+      </c>
+      <c r="D1273" s="4">
+        <v>45824.802777777797</v>
+      </c>
+      <c r="E1273" s="4">
+        <v>45827.340277777803</v>
+      </c>
+      <c r="F1273" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1273" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1273" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1273" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1274" s="2">
+        <v>82127</v>
+      </c>
+      <c r="B1274" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1274" s="2">
+        <v>41</v>
+      </c>
+      <c r="D1274" s="4">
+        <v>45824.78125</v>
+      </c>
+      <c r="E1274" s="4">
+        <v>45827.979166666701</v>
+      </c>
+      <c r="F1274" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1274" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1274" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1274" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1275" s="2">
+        <v>82117</v>
+      </c>
+      <c r="B1275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1275" s="2">
+        <v>39</v>
+      </c>
+      <c r="D1275" s="4">
+        <v>45824.392361111102</v>
+      </c>
+      <c r="E1275" s="4">
+        <v>45829.125</v>
+      </c>
+      <c r="F1275" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1275" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1275" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1275" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1276" s="2">
+        <v>82107</v>
+      </c>
+      <c r="B1276" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1276" s="2">
+        <v>28</v>
+      </c>
+      <c r="D1276" s="4">
+        <v>45823.944444444402</v>
+      </c>
+      <c r="E1276" s="4">
+        <v>45830.739583333299</v>
+      </c>
+      <c r="F1276" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1276" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1276" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1276" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1277" s="2">
+        <v>82098</v>
+      </c>
+      <c r="B1277" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1277" s="2">
+        <v>59</v>
+      </c>
+      <c r="D1277" s="4">
+        <v>45823.833333333299</v>
+      </c>
+      <c r="E1277" s="4">
+        <v>45826.701388888898</v>
+      </c>
+      <c r="F1277" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1277" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1277" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1277" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1278" s="2">
+        <v>82097</v>
+      </c>
+      <c r="B1278" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1278" s="2">
+        <v>53</v>
+      </c>
+      <c r="D1278" s="4">
+        <v>45823.786805555603</v>
+      </c>
+      <c r="E1278" s="4">
+        <v>45825.1694444444</v>
+      </c>
+      <c r="F1278" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1278" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1278" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1278" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1279" s="2">
+        <v>82087</v>
+      </c>
+      <c r="B1279" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1279" s="2">
+        <v>58</v>
+      </c>
+      <c r="D1279" s="4">
+        <v>45822.708333333299</v>
+      </c>
+      <c r="E1279" s="4">
+        <v>45823.833333333299</v>
+      </c>
+      <c r="F1279" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1279" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1279" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1279" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1280" s="2">
+        <v>82088</v>
+      </c>
+      <c r="B1280" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1280" s="2">
+        <v>11</v>
+      </c>
+      <c r="D1280" s="4">
+        <v>45822.673611111102</v>
+      </c>
+      <c r="E1280" s="4">
+        <v>45825.861111111102</v>
+      </c>
+      <c r="F1280" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1280" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1281" s="2">
+        <v>82077</v>
+      </c>
+      <c r="B1281" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1281" s="2">
+        <v>52</v>
+      </c>
+      <c r="D1281" s="4">
+        <v>45822.281944444403</v>
+      </c>
+      <c r="E1281" s="4">
+        <v>45823.786805555603</v>
+      </c>
+      <c r="F1281" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1281" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1281" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1282" s="2">
+        <v>82069</v>
+      </c>
+      <c r="B1282" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1282" s="2">
+        <v>51</v>
+      </c>
+      <c r="D1282" s="4">
+        <v>45821.557638888902</v>
+      </c>
+      <c r="E1282" s="4">
+        <v>45822.281944444403</v>
+      </c>
+      <c r="F1282" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1282" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1282" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1282" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1283" s="2">
+        <v>82068</v>
+      </c>
+      <c r="B1283" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1283" s="2">
+        <v>57</v>
+      </c>
+      <c r="D1283" s="4">
+        <v>45821.545138888898</v>
+      </c>
+      <c r="E1283" s="4">
+        <v>45822.708333333299</v>
+      </c>
+      <c r="F1283" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1283" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1283" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1283" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1284" s="2">
+        <v>82067</v>
+      </c>
+      <c r="B1284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1284" s="2">
+        <v>38</v>
+      </c>
+      <c r="D1284" s="4">
+        <v>45821.21875</v>
+      </c>
+      <c r="E1284" s="4">
+        <v>45824.392361111102</v>
+      </c>
+      <c r="F1284" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1284" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1284" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1284" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1285" s="2">
+        <v>82057</v>
+      </c>
+      <c r="B1285" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1285" s="2">
+        <v>56</v>
+      </c>
+      <c r="D1285" s="4">
+        <v>45820.295138888898</v>
+      </c>
+      <c r="E1285" s="4">
+        <v>45821.545138888898</v>
+      </c>
+      <c r="F1285" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1285" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1285" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1285" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1286" s="2">
+        <v>82047</v>
+      </c>
+      <c r="B1286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1286" s="2">
+        <v>40</v>
+      </c>
+      <c r="D1286" s="4">
+        <v>45819.9375</v>
+      </c>
+      <c r="E1286" s="4">
+        <v>45824.78125</v>
+      </c>
+      <c r="F1286" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1286" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1286" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1286" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1287" s="2">
+        <v>82037</v>
+      </c>
+      <c r="B1287" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1287" s="2">
+        <v>32</v>
+      </c>
+      <c r="D1287" s="4">
+        <v>45819.583333333299</v>
+      </c>
+      <c r="E1287" s="4">
+        <v>45825.378472222197</v>
+      </c>
+      <c r="F1287" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1287" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1287" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1287" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1288" s="2">
+        <v>82027</v>
+      </c>
+      <c r="B1288" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1288" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1288" s="4">
+        <v>45819.458333333299</v>
+      </c>
+      <c r="E1288" s="4">
+        <v>45822.673611111102</v>
+      </c>
+      <c r="F1288" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1288" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1288" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1288" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1289" s="2">
+        <v>82017</v>
+      </c>
+      <c r="B1289" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1289" s="2">
+        <v>55</v>
+      </c>
+      <c r="D1289" s="4">
+        <v>45818.618055555598</v>
+      </c>
+      <c r="E1289" s="4">
+        <v>45820.295138888898</v>
+      </c>
+      <c r="F1289" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1289" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1289" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1289" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1290" s="2">
+        <v>82007</v>
+      </c>
+      <c r="B1290" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1290" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1290" s="4">
+        <v>45818.479166666701</v>
+      </c>
+      <c r="E1290" s="4">
+        <v>45821.557638888902</v>
+      </c>
+      <c r="F1290" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1290" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1290" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1290" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1291" s="2">
+        <v>81999</v>
+      </c>
+      <c r="B1291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1291" s="2">
+        <v>37</v>
+      </c>
+      <c r="D1291" s="4">
+        <v>45817.90625</v>
+      </c>
+      <c r="E1291" s="4">
+        <v>45821.21875</v>
+      </c>
+      <c r="F1291" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1291" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1291" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1291" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1292" s="2">
+        <v>81998</v>
+      </c>
+      <c r="B1292" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1292" s="2">
+        <v>34</v>
+      </c>
+      <c r="D1292" s="4">
+        <v>45817.822916666701</v>
+      </c>
+      <c r="E1292" s="4">
+        <v>45826.708333333299</v>
+      </c>
+      <c r="F1292" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1292" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1292" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1292" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1293" s="2">
+        <v>81978</v>
+      </c>
+      <c r="B1293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1293" s="2">
+        <v>39</v>
+      </c>
+      <c r="D1293" s="4">
+        <v>45817.277777777803</v>
+      </c>
+      <c r="E1293" s="4">
+        <v>45819.9375</v>
+      </c>
+      <c r="F1293" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1293" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1293" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1293" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1294" s="2">
+        <v>81977</v>
+      </c>
+      <c r="B1294" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1294" s="2">
+        <v>49</v>
+      </c>
+      <c r="D1294" s="4">
+        <v>45817.131944444402</v>
+      </c>
+      <c r="E1294" s="4">
+        <v>45818.479166666701</v>
+      </c>
+      <c r="F1294" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1294" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1294" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1294" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1295" s="2">
+        <v>81967</v>
+      </c>
+      <c r="B1295" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1295" s="2">
+        <v>33</v>
+      </c>
+      <c r="D1295" s="4">
+        <v>45817.041666666701</v>
+      </c>
+      <c r="E1295" s="4">
+        <v>45824.802777777797</v>
+      </c>
+      <c r="F1295" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1295" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1295" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1295" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1296" s="2">
+        <v>81958</v>
+      </c>
+      <c r="B1296" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1296" s="2">
+        <v>54</v>
+      </c>
+      <c r="D1296" s="4">
+        <v>45816.861111111102</v>
+      </c>
+      <c r="E1296" s="4">
+        <v>45818.618055555598</v>
+      </c>
+      <c r="F1296" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1296" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1296" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1296" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1297" s="2">
+        <v>81957</v>
+      </c>
+      <c r="B1297" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1297" s="2">
+        <v>23</v>
+      </c>
+      <c r="D1297" s="4">
+        <v>45816.789583333302</v>
+      </c>
+      <c r="E1297" s="4">
+        <v>45836.819444444402</v>
+      </c>
+      <c r="F1297" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1297" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1297" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1297" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1298" s="2">
+        <v>81947</v>
+      </c>
+      <c r="B1298" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1298" s="2">
+        <v>34</v>
+      </c>
+      <c r="D1298" s="4">
+        <v>45816.638888888898</v>
+      </c>
+      <c r="E1298" s="4">
+        <v>45826.396527777797</v>
+      </c>
+      <c r="F1298" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1298" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1298" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1298" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1299" s="2">
+        <v>81927</v>
+      </c>
+      <c r="B1299" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1299" s="2">
+        <v>48</v>
+      </c>
+      <c r="D1299" s="4">
+        <v>45816.243055555598</v>
+      </c>
+      <c r="E1299" s="4">
+        <v>45817.131944444402</v>
+      </c>
+      <c r="F1299" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1299" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1299" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1299" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1300" s="2">
+        <v>81937</v>
+      </c>
+      <c r="B1300" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1300" s="2">
+        <v>27</v>
+      </c>
+      <c r="D1300" s="4">
+        <v>45816.239583333299</v>
+      </c>
+      <c r="E1300" s="4">
+        <v>45823.944444444402</v>
+      </c>
+      <c r="F1300" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1300" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1300" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1300" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1301" s="2">
+        <v>81917</v>
+      </c>
+      <c r="B1301" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1301" s="2">
+        <v>53</v>
+      </c>
+      <c r="D1301" s="4">
+        <v>45816.076388888898</v>
+      </c>
+      <c r="E1301" s="4">
+        <v>45816.861111111102</v>
+      </c>
+      <c r="F1301" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1301" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1301" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1301" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1302" s="2">
+        <v>81907</v>
+      </c>
+      <c r="B1302" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1302" s="2">
+        <v>31</v>
+      </c>
+      <c r="D1302" s="4">
+        <v>45815.602083333302</v>
+      </c>
+      <c r="E1302" s="4">
+        <v>45819.583333333299</v>
+      </c>
+      <c r="F1302" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1302" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1302" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1302" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1303" s="2">
+        <v>81897</v>
+      </c>
+      <c r="B1303" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1303" s="2">
+        <v>52</v>
+      </c>
+      <c r="D1303" s="4">
+        <v>45815.045138888898</v>
+      </c>
+      <c r="E1303" s="4">
+        <v>45816.076388888898</v>
+      </c>
+      <c r="F1303" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1303" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1303" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1303" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1304" s="2">
+        <v>81887</v>
+      </c>
+      <c r="B1304" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1304" s="2">
+        <v>47</v>
+      </c>
+      <c r="D1304" s="4">
+        <v>45814.7097222222</v>
+      </c>
+      <c r="E1304" s="4">
+        <v>45816.243055555598</v>
+      </c>
+      <c r="F1304" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1304" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1304" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1304" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1305" s="2">
+        <v>81877</v>
+      </c>
+      <c r="B1305" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1305" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1305" s="4">
+        <v>45814.107638888898</v>
+      </c>
+      <c r="E1305" s="4">
+        <v>45819.458333333299</v>
+      </c>
+      <c r="F1305" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1305" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1305" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1305" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1306" s="2">
+        <v>81868</v>
+      </c>
+      <c r="B1306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1306" s="2">
+        <v>36</v>
+      </c>
+      <c r="D1306" s="4">
+        <v>45813.875</v>
+      </c>
+      <c r="E1306" s="4">
+        <v>45817.90625</v>
+      </c>
+      <c r="F1306" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1306" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1306" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1307" s="2">
+        <v>81867</v>
+      </c>
+      <c r="B1307" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1307" s="2">
+        <v>38</v>
+      </c>
+      <c r="D1307" s="4">
+        <v>45813.784722222197</v>
+      </c>
+      <c r="E1307" s="4">
+        <v>45817.277777777803</v>
+      </c>
+      <c r="F1307" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1307" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1307" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1307" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1308" s="2">
+        <v>81857</v>
+      </c>
+      <c r="B1308" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1308" s="2">
+        <v>32</v>
+      </c>
+      <c r="D1308" s="4">
+        <v>45813.368055555598</v>
+      </c>
+      <c r="E1308" s="4">
+        <v>45817.041666666701</v>
+      </c>
+      <c r="F1308" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1308" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1308" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1308" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1309" s="2">
+        <v>81847</v>
+      </c>
+      <c r="B1309" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1309" s="2">
+        <v>51</v>
+      </c>
+      <c r="D1309" s="4">
+        <v>45813.284722222197</v>
+      </c>
+      <c r="E1309" s="4">
+        <v>45815.045138888898</v>
+      </c>
+      <c r="F1309" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1309" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1309" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1309" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1310" s="2">
+        <v>81827</v>
+      </c>
+      <c r="B1310" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1310" s="2">
+        <v>15</v>
+      </c>
+      <c r="D1310" s="4">
+        <v>45813.25</v>
+      </c>
+      <c r="E1310" s="4">
+        <v>45823.000694444403</v>
+      </c>
+      <c r="F1310" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1310" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1310" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1310" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1311" s="2">
+        <v>81837</v>
+      </c>
+      <c r="B1311" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1311" s="2">
+        <v>46</v>
+      </c>
+      <c r="D1311" s="4">
+        <v>45812.701388888898</v>
+      </c>
+      <c r="E1311" s="4">
+        <v>45814.7097222222</v>
+      </c>
+      <c r="F1311" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1311" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1311" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1311" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1312" s="2">
+        <v>81807</v>
+      </c>
+      <c r="B1312" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1312" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1312" s="4">
+        <v>45812.184027777803</v>
+      </c>
+      <c r="E1312" s="4">
+        <v>45813.284722222197</v>
+      </c>
+      <c r="F1312" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1312" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1312" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1312" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1313" s="2">
+        <v>81817</v>
+      </c>
+      <c r="B1313" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1313" s="2">
+        <v>30</v>
+      </c>
+      <c r="D1313" s="4">
+        <v>45812.15625</v>
+      </c>
+      <c r="E1313" s="4">
+        <v>45815.602083333302</v>
+      </c>
+      <c r="F1313" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1313" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1313" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1313" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1314" s="2">
+        <v>81797</v>
+      </c>
+      <c r="B1314" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1314" s="2">
+        <v>33</v>
+      </c>
+      <c r="D1314" s="4">
+        <v>45811.819444444402</v>
+      </c>
+      <c r="E1314" s="4">
+        <v>45816.638888888898</v>
+      </c>
+      <c r="F1314" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1314" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1314" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1314" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1315" s="2">
+        <v>81787</v>
+      </c>
+      <c r="B1315" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1315" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1315" s="4">
+        <v>45811.402777777803</v>
+      </c>
+      <c r="E1315" s="4">
+        <v>45814.107638888898</v>
+      </c>
+      <c r="F1315" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1315" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1315" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1315" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1316" s="2">
+        <v>81777</v>
+      </c>
+      <c r="B1316" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1316" s="2">
+        <v>37</v>
+      </c>
+      <c r="D1316" s="4">
+        <v>45810.5</v>
+      </c>
+      <c r="E1316" s="4">
+        <v>45813.784722222197</v>
+      </c>
+      <c r="F1316" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1316" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1316" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1316" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1317" s="2">
+        <v>81767</v>
+      </c>
+      <c r="B1317" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1317" s="2">
+        <v>31</v>
+      </c>
+      <c r="D1317" s="4">
+        <v>45810.229166666701</v>
+      </c>
+      <c r="E1317" s="4">
+        <v>45813.368055555598</v>
+      </c>
+      <c r="F1317" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1317" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1317" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1317" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1318" s="2">
+        <v>81757</v>
+      </c>
+      <c r="B1318" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1318" s="2">
+        <v>26</v>
+      </c>
+      <c r="D1318" s="4">
+        <v>45809.854166666701</v>
+      </c>
+      <c r="E1318" s="4">
+        <v>45816.239583333299</v>
+      </c>
+      <c r="F1318" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1318" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1318" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1318" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1319" s="2">
+        <v>81748</v>
+      </c>
+      <c r="B1319" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1319" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1319" s="4">
+        <v>45809.458333333299</v>
+      </c>
+      <c r="E1319" s="4">
+        <v>45813.875</v>
+      </c>
+      <c r="F1319" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1319" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1319" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1319" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1320" s="2">
+        <v>81747</v>
+      </c>
+      <c r="B1320" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1320" s="2">
+        <v>14</v>
+      </c>
+      <c r="D1320" s="4">
+        <v>45809.4375</v>
+      </c>
+      <c r="E1320" s="4">
+        <v>45813.25</v>
+      </c>
+      <c r="F1320" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1320" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1320" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1320" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
